--- a/data/ Female_Male Earnings 1960 to 2020.xlsx
+++ b/data/ Female_Male Earnings 1960 to 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADC-IPHS\ISB\CPS\MARCH\2021\P60-273 Report\Tables\appendix_tables\For Publish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krisruirui/Desktop/GR5293 Graphic/incomevariation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469FA7BC-3244-4108-9D2E-A70FF2C6E195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806E7C20-478B-624E-B149-4012D6A6D338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tableA7" sheetId="1" r:id="rId1"/>
@@ -1558,19 +1558,19 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,175 +1912,175 @@
   <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:R2"/>
+      <pane ySplit="7" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U93" sqref="U93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="10.28515625" customWidth="1"/>
+    <col min="1" max="18" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9" t="s">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="10"/>
+      <c r="P6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2129,9 +2129,9 @@
       <c r="Q7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2019</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2018</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2017</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2016</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2015</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2014</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2012</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2011</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2009</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2008</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2007</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2006</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2005</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2003</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2002</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2001</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1998</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1997</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1996</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>24</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>25</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1991</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1990</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1989</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1988</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0.65200000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1986</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>27</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>28</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1983</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1982</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1981</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1980</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>29</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1978</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1977</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>30</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>31</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>32</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1973</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>33</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>34</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1970</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1969</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1968</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>35</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1964</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1963</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>38</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>39</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1960</v>
       </c>
@@ -5659,646 +5659,678 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-    </row>
-    <row r="72" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+    </row>
+    <row r="72" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-    </row>
-    <row r="74" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+    </row>
+    <row r="74" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-    </row>
-    <row r="77" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+    </row>
+    <row r="77" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-    </row>
-    <row r="83" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+    </row>
+    <row r="83" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A98:R98"/>
+    <mergeCell ref="A99:R99"/>
+    <mergeCell ref="A93:R93"/>
+    <mergeCell ref="A94:R94"/>
+    <mergeCell ref="A95:R95"/>
+    <mergeCell ref="A96:R96"/>
+    <mergeCell ref="A97:R97"/>
+    <mergeCell ref="A88:R88"/>
+    <mergeCell ref="A89:R89"/>
+    <mergeCell ref="A90:R90"/>
+    <mergeCell ref="A91:R91"/>
+    <mergeCell ref="A92:R92"/>
+    <mergeCell ref="A83:R83"/>
+    <mergeCell ref="A84:R84"/>
+    <mergeCell ref="A85:R85"/>
+    <mergeCell ref="A86:R86"/>
+    <mergeCell ref="A87:R87"/>
+    <mergeCell ref="A78:R78"/>
+    <mergeCell ref="A79:R79"/>
+    <mergeCell ref="A80:R80"/>
+    <mergeCell ref="A81:R81"/>
+    <mergeCell ref="A82:R82"/>
+    <mergeCell ref="A73:R73"/>
+    <mergeCell ref="A74:R74"/>
+    <mergeCell ref="A75:R75"/>
+    <mergeCell ref="A76:R76"/>
+    <mergeCell ref="A77:R77"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A71:R71"/>
+    <mergeCell ref="A72:R72"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
@@ -6315,38 +6347,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A71:R71"/>
-    <mergeCell ref="A72:R72"/>
-    <mergeCell ref="A73:R73"/>
-    <mergeCell ref="A74:R74"/>
-    <mergeCell ref="A75:R75"/>
-    <mergeCell ref="A76:R76"/>
-    <mergeCell ref="A77:R77"/>
-    <mergeCell ref="A78:R78"/>
-    <mergeCell ref="A79:R79"/>
-    <mergeCell ref="A80:R80"/>
-    <mergeCell ref="A81:R81"/>
-    <mergeCell ref="A82:R82"/>
-    <mergeCell ref="A83:R83"/>
-    <mergeCell ref="A84:R84"/>
-    <mergeCell ref="A85:R85"/>
-    <mergeCell ref="A86:R86"/>
-    <mergeCell ref="A87:R87"/>
-    <mergeCell ref="A88:R88"/>
-    <mergeCell ref="A89:R89"/>
-    <mergeCell ref="A90:R90"/>
-    <mergeCell ref="A91:R91"/>
-    <mergeCell ref="A92:R92"/>
-    <mergeCell ref="A98:R98"/>
-    <mergeCell ref="A99:R99"/>
-    <mergeCell ref="A93:R93"/>
-    <mergeCell ref="A94:R94"/>
-    <mergeCell ref="A95:R95"/>
-    <mergeCell ref="A96:R96"/>
-    <mergeCell ref="A97:R97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
